--- a/boms/test1.xlsx
+++ b/boms/test1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId2"/>
@@ -274,30 +274,41 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,10 +810,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>